--- a/Assignment4/Relationship.xlsx
+++ b/Assignment4/Relationship.xlsx
@@ -24,12 +24,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>n</t>
   </si>
   <si>
     <t>m</t>
+  </si>
+  <si>
+    <t>m ~ n</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>Slope</t>
   </si>
 </sst>
 </file>
@@ -45,12 +54,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -65,8 +80,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -105,11 +121,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -119,7 +135,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-IN"/>
-              <a:t>Relationship between N and m</a:t>
+              <a:t>n vs m</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -138,11 +154,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -155,74 +171,38 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:rAngAx val="0"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:line3DChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$1</c:f>
+              <c:f>Sheet1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>n</c:v>
+                  <c:v>m</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
-            <a:sp3d/>
           </c:spPr>
-          <c:val>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$11</c:f>
               <c:numCache>
@@ -260,72 +240,46 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>m</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9999</c:v>
+                  <c:v>47206</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10999</c:v>
+                  <c:v>51886</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11999</c:v>
+                  <c:v>74449</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12999</c:v>
+                  <c:v>70065</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13999</c:v>
+                  <c:v>60205</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14999</c:v>
+                  <c:v>76542</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15999</c:v>
+                  <c:v>77456</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16999</c:v>
+                  <c:v>83836</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17999</c:v>
+                  <c:v>90046</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18999</c:v>
+                  <c:v>94448</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -336,14 +290,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="163326560"/>
-        <c:axId val="163323816"/>
-        <c:axId val="538939704"/>
-      </c:line3DChart>
-      <c:catAx>
-        <c:axId val="163326560"/>
+        <c:axId val="203593488"/>
+        <c:axId val="203597800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="203593488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="8000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -354,7 +308,6 @@
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
-                  <a:alpha val="32000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -362,20 +315,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
-            <a:tailEnd type="none" w="med" len="lg"/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -399,15 +352,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163323816"/>
+        <c:crossAx val="203597800"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="163323816"/>
+        <c:axId val="203597800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -420,7 +370,6 @@
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
-                  <a:alpha val="32000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -434,15 +383,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
-            <a:tailEnd type="none" w="med" len="lg"/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -466,53 +414,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163326560"/>
+        <c:crossAx val="203593488"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:serAx>
-        <c:axId val="538939704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-            <a:tailEnd type="none" w="med" len="lg"/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="163323816"/>
-      </c:serAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -521,38 +426,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -631,7 +504,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="237">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -642,7 +515,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -655,7 +528,30 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -663,33 +559,9 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
-        <a:tailEnd type="none" w="med" len="lg"/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -733,49 +605,39 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:miter lim="800000"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
@@ -783,7 +645,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -791,18 +653,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -810,7 +668,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -832,13 +690,15 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -857,13 +717,14 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -875,13 +736,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -893,13 +755,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -910,6 +773,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -924,7 +793,6 @@
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
-            <a:alpha val="32000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -939,14 +807,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
-            <a:alpha val="32000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -958,10 +826,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -973,13 +845,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1016,20 +889,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-        <a:tailEnd type="none" w="med" len="lg"/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1040,13 +904,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -1056,11 +921,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1072,7 +937,12 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="rnd"/>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
     </cs:spPr>
   </cs:trendline>
   <cs:trendlineLabel>
@@ -1098,13 +968,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1119,15 +990,14 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
-        <a:tailEnd type="none" w="med" len="lg"/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1139,6 +1009,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1147,20 +1023,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1441,7 +1317,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="W1" sqref="W1"/>
@@ -1462,7 +1338,7 @@
         <v>10000</v>
       </c>
       <c r="B2">
-        <v>9999</v>
+        <v>47206</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1470,7 +1346,7 @@
         <v>11000</v>
       </c>
       <c r="B3">
-        <v>10999</v>
+        <v>51886</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1478,7 +1354,7 @@
         <v>12000</v>
       </c>
       <c r="B4">
-        <v>11999</v>
+        <v>74449</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1486,7 +1362,7 @@
         <v>13000</v>
       </c>
       <c r="B5">
-        <v>12999</v>
+        <v>70065</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1494,7 +1370,7 @@
         <v>14000</v>
       </c>
       <c r="B6">
-        <v>13999</v>
+        <v>60205</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1502,7 +1378,7 @@
         <v>15000</v>
       </c>
       <c r="B7">
-        <v>14999</v>
+        <v>76542</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1510,7 +1386,7 @@
         <v>16000</v>
       </c>
       <c r="B8">
-        <v>15999</v>
+        <v>77456</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1518,7 +1394,7 @@
         <v>17000</v>
       </c>
       <c r="B9">
-        <v>16999</v>
+        <v>83836</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1526,7 +1402,7 @@
         <v>18000</v>
       </c>
       <c r="B10">
-        <v>17999</v>
+        <v>90046</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1534,7 +1410,23 @@
         <v>19000</v>
       </c>
       <c r="B11">
-        <v>18999</v>
+        <v>94448</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>5.24</v>
       </c>
     </row>
   </sheetData>
